--- a/Dataset.xlsx
+++ b/Dataset.xlsx
@@ -5,22 +5,38 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myoffice.accenture.com/personal/alexander_j_prior_accenture_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madeline.wong\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{335420E8-0717-4BE4-A74E-6BC9810FD8B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB23FF8E-4AF7-4DA1-8455-A5722525DC77}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6720" yWindow="3645" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
+  <si>
+    <t>Candidate Profile</t>
+  </si>
+  <si>
+    <t>Role Profile</t>
+  </si>
   <si>
     <t>Service</t>
   </si>
@@ -49,12 +65,6 @@
     <t>Local Office</t>
   </si>
   <si>
-    <t>Candidate Profile</t>
-  </si>
-  <si>
-    <t>Role Profile</t>
-  </si>
-  <si>
     <t>Chargeability</t>
   </si>
   <si>
@@ -71,6 +81,189 @@
   </si>
   <si>
     <t>Required Skills</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Local Requirement</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Account Leadership</t>
+  </si>
+  <si>
+    <t>Cloud Security Analyst</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>CISSP</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Cloud Security Enablement Phase 1</t>
+  </si>
+  <si>
+    <t>Strategy &amp; Consulting</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Cloud Security Senior Analyst</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>AWS SA</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Application Security F/P Analysis</t>
+  </si>
+  <si>
+    <t>Interactive</t>
+  </si>
+  <si>
+    <t>Consulting</t>
+  </si>
+  <si>
+    <t>Consulting Development Analyst</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>IBD DSPC</t>
+  </si>
+  <si>
+    <t>Midwest</t>
+  </si>
+  <si>
+    <t>NYC</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Cyber Integration</t>
+  </si>
+  <si>
+    <t>Operations</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Consulting Development Senior Analyst</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>CAP</t>
+  </si>
+  <si>
+    <t>Northeast</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>iDefense- Zaim</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>Security Consulting Analyst</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t>Denver</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>iDefense- Odin</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Security Consulting Senior Analyst</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Journey2Cloud</t>
+  </si>
+  <si>
+    <t>Human Resources</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Malware Analysis &amp; Countermeasures (MAC)</t>
+  </si>
+  <si>
+    <t>IT Operations</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Chevron Cloud Security</t>
+  </si>
+  <si>
+    <t>Legal</t>
+  </si>
+  <si>
+    <t>Avande</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>AT&amp;T Application Scanning</t>
+  </si>
+  <si>
+    <t>Strategy</t>
   </si>
 </sst>
 </file>
@@ -114,9 +307,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,50 +625,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="G3" sqref="G3:G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
@@ -493,6 +701,405 @@
       <c r="P2" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="Q2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2">
+        <v>43831</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="2">
+        <v>43831</v>
+      </c>
+      <c r="M3" s="2">
+        <v>43845</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="2">
+        <v>43862</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="2">
+        <v>43862</v>
+      </c>
+      <c r="M4" s="2">
+        <v>43876</v>
+      </c>
+      <c r="N4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="2">
+        <v>43891</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="2">
+        <v>43891</v>
+      </c>
+      <c r="M5" s="2">
+        <v>43905</v>
+      </c>
+      <c r="N5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="2">
+        <v>43922</v>
+      </c>
+      <c r="H6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="2">
+        <v>43922</v>
+      </c>
+      <c r="M6" s="2">
+        <v>43936</v>
+      </c>
+      <c r="N6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43952</v>
+      </c>
+      <c r="I7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="2">
+        <v>43952</v>
+      </c>
+      <c r="M7" s="2">
+        <v>43966</v>
+      </c>
+      <c r="N7" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="G8" s="2">
+        <v>43983</v>
+      </c>
+      <c r="L8" s="2">
+        <v>43983</v>
+      </c>
+      <c r="M8" s="2">
+        <v>43997</v>
+      </c>
+      <c r="N8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="G9" s="2">
+        <v>44013</v>
+      </c>
+      <c r="L9" s="2">
+        <v>44013</v>
+      </c>
+      <c r="M9" s="2">
+        <v>44027</v>
+      </c>
+      <c r="N9" t="s">
+        <v>68</v>
+      </c>
+      <c r="O9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="G10" s="2">
+        <v>44044</v>
+      </c>
+      <c r="L10" s="2">
+        <v>44044</v>
+      </c>
+      <c r="M10" s="2">
+        <v>44058</v>
+      </c>
+      <c r="N10" t="s">
+        <v>71</v>
+      </c>
+      <c r="O10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="G11" s="2">
+        <v>44075</v>
+      </c>
+      <c r="L11" s="2">
+        <v>44075</v>
+      </c>
+      <c r="M11" s="2">
+        <v>44089</v>
+      </c>
+      <c r="O11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2">
+        <v>44105</v>
+      </c>
+      <c r="L12" s="2">
+        <v>44105</v>
+      </c>
+      <c r="M12" s="2">
+        <v>44119</v>
+      </c>
+      <c r="O12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="G13" s="2">
+        <v>44136</v>
+      </c>
+      <c r="L13" s="2">
+        <v>44136</v>
+      </c>
+      <c r="M13" s="2">
+        <v>44150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G14" s="2">
+        <v>44166</v>
+      </c>
+      <c r="L14" s="2">
+        <v>44166</v>
+      </c>
+      <c r="M14" s="2">
+        <v>44180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -501,41 +1108,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E1DFFB0491F9854A9321124912850BA4" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e313e21c44bfacef7d19e45487369097">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e1037d09-ba09-4846-9a7d-057f81561751" xmlns:ns4="356cf773-9be6-43a9-af21-3951abaa76e3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="43dce22569ef231a7c83ad4e7081ab62" ns3:_="" ns4:_="">
-    <xsd:import namespace="e1037d09-ba09-4846-9a7d-057f81561751"/>
-    <xsd:import namespace="356cf773-9be6-43a9-af21-3951abaa76e3"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003F4DCC8C16F112418B4A77FFB6411997" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6ef2a77e321c3c07566c8e5c5c1a4e69">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4ee8f0aa-a093-4a4a-a4c8-b23e7178c013" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eac4ed4f811fd65fbeb2629e4b55805a" ns2:_="">
+    <xsd:import namespace="4ee8f0aa-a093-4a4a-a4c8-b23e7178c013"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -543,7 +1128,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e1037d09-ba09-4846-9a7d-057f81561751" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4ee8f0aa-a093-4a4a-a4c8-b23e7178c013" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -556,66 +1141,16 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="356cf773-9be6-43a9-af21-3951abaa76e3" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="15" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="SharingHintHash" ma:index="16" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -718,40 +1253,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B9A3583-147C-48AD-8ED8-CE86D181A30F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D359BAE-2B6A-4193-A9C8-CDA298846585}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="356cf773-9be6-43a9-af21-3951abaa76e3"/>
-    <ds:schemaRef ds:uri="e1037d09-ba09-4846-9a7d-057f81561751"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E03F003-61F3-434B-AE66-3810F13FF933}">
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D324206E-9C8D-4FF4-B413-9E5A85910B66}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e1037d09-ba09-4846-9a7d-057f81561751"/>
-    <ds:schemaRef ds:uri="356cf773-9be6-43a9-af21-3951abaa76e3"/>
+    <ds:schemaRef ds:uri="4ee8f0aa-a093-4a4a-a4c8-b23e7178c013"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -760,4 +1284,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B9A3583-147C-48AD-8ED8-CE86D181A30F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D359BAE-2B6A-4193-A9C8-CDA298846585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4ee8f0aa-a093-4a4a-a4c8-b23e7178c013"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>